--- a/template_examples/tissue_slide_template.xlsx
+++ b/template_examples/tissue_slide_template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rbiswas/PycharmProjects/schema/cidc-schemas/template_examples/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C742A408-1574-7947-A3AF-DD9990855E55}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDA0345F-3B48-B84E-B2AB-8EC33A44C575}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="460" windowWidth="28480" windowHeight="11480" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="460" windowWidth="16100" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Shipment" sheetId="1" r:id="rId1"/>
@@ -433,7 +433,7 @@
         <r>
           <rPr>
             <sz val="10"/>
-            <color rgb="FF000000"/>
+            <color indexed="81"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
@@ -937,7 +937,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="863" uniqueCount="273">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="877" uniqueCount="274">
   <si>
     <t>#t</t>
   </si>
@@ -1350,6 +1350,9 @@
     <t>WES</t>
   </si>
   <si>
+    <t>IHC</t>
+  </si>
+  <si>
     <t>MDA_Wistuba</t>
   </si>
   <si>
@@ -1647,6 +1650,9 @@
     <t>Cells per Vial</t>
   </si>
   <si>
+    <t>Slides</t>
+  </si>
+  <si>
     <t>RT</t>
   </si>
   <si>
@@ -1686,83 +1692,80 @@
     <t>Sample received from CIMAC</t>
   </si>
   <si>
-    <t>Arm_ Z</t>
+    <t>TTTPP801</t>
+  </si>
+  <si>
+    <t>TRIALGROUP 1</t>
+  </si>
+  <si>
+    <t>BIOBANK 1</t>
+  </si>
+  <si>
+    <t>CTTTP08T1.00</t>
   </si>
   <si>
     <t>A1</t>
   </si>
   <si>
-    <t>Slides</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pass </t>
-  </si>
-  <si>
-    <t>Arm_ A</t>
+    <t>TTTPP802</t>
+  </si>
+  <si>
+    <t>TRIALGROUP 2</t>
+  </si>
+  <si>
+    <t>CTTTP08T2.00</t>
   </si>
   <si>
     <t>A2</t>
   </si>
   <si>
-    <t>Arm_ B</t>
+    <t>TTTPP803</t>
+  </si>
+  <si>
+    <t>TRIALGROUP 3</t>
+  </si>
+  <si>
+    <t>CTTTP08T3.00</t>
   </si>
   <si>
     <t>A3</t>
   </si>
   <si>
-    <t>Off-study</t>
-  </si>
-  <si>
-    <t>Arm_ C</t>
-  </si>
-  <si>
-    <t>TRIALGROUP 1</t>
-  </si>
-  <si>
-    <t>BIOBANK 1</t>
-  </si>
-  <si>
-    <t>TRIALGROUP 2</t>
-  </si>
-  <si>
-    <t>TRIALGROUP 3</t>
+    <t>TTTPP901</t>
   </si>
   <si>
     <t>TRIALGROUP 4</t>
   </si>
   <si>
+    <t>CTTTP09T1.00</t>
+  </si>
+  <si>
     <t>A4</t>
   </si>
   <si>
-    <t>TTTPP801</t>
-  </si>
-  <si>
-    <t>TTTPP802</t>
-  </si>
-  <si>
-    <t>TTTPP803</t>
-  </si>
-  <si>
-    <t>TTTPP901</t>
-  </si>
-  <si>
-    <t>CTTTP08T1.00</t>
-  </si>
-  <si>
-    <t>CTTTP08T2.00</t>
-  </si>
-  <si>
-    <t>CTTTP08T3.00</t>
-  </si>
-  <si>
-    <t>CTTTP09T1.00</t>
+    <t>test_prism_trial_id</t>
+  </si>
+  <si>
+    <t>TrackN</t>
+  </si>
+  <si>
+    <t>AccN</t>
+  </si>
+  <si>
+    <t>ship from</t>
+  </si>
+  <si>
+    <t>ship to</t>
+  </si>
+  <si>
+    <t>test_prism_trial_id_slide</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1781,24 +1784,6 @@
     <font>
       <sz val="10"/>
       <color indexed="81"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
       <name val="Tahoma"/>
       <family val="2"/>
     </font>
@@ -1873,7 +1858,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
@@ -1890,8 +1875,9 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="1" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" indent="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2232,7 +2218,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C218"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="B4" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
@@ -2240,7 +2228,7 @@
     <col min="2" max="101" width="30.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2249,131 +2237,159 @@
       </c>
       <c r="C1" s="5"/>
     </row>
-    <row r="2" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="2"/>
-    </row>
-    <row r="3" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="C2" s="2" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="2"/>
-    </row>
-    <row r="4" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="C3" s="2" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="2"/>
-    </row>
-    <row r="5" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="C4" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>2</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="2"/>
-    </row>
-    <row r="6" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="C5" s="2" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>2</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="2"/>
-    </row>
-    <row r="7" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="C6" s="2" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>2</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="2"/>
-    </row>
-    <row r="8" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="C7" s="2" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>2</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="2"/>
-    </row>
-    <row r="9" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="C8" s="2" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>2</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="2"/>
-    </row>
-    <row r="10" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="C9" s="2" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>2</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C10" s="2"/>
-    </row>
-    <row r="11" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="C10" s="2" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>2</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C11" s="2"/>
-    </row>
-    <row r="12" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="C11" s="6">
+        <v>37174</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>2</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C12" s="2"/>
-    </row>
-    <row r="13" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="C12" s="6">
+        <v>37539</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="33" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>2</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C13" s="2"/>
-    </row>
-    <row r="14" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="C13" s="2" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>2</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C14" s="2"/>
-    </row>
-    <row r="15" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="C14" s="2" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>2</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C15" s="2"/>
+      <c r="C15" s="2" t="s">
+        <v>272</v>
+      </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
@@ -3389,7 +3405,7 @@
       <formula1>"1,2,3,4,5,6,7,8,9,10,11,12,13,14,15,Not Reported,Other"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C5" xr:uid="{00000000-0002-0000-0000-000001000000}">
-      <formula1>"Olink,WES,Not Reported,Other"</formula1>
+      <formula1>"Olink,WES,IHC,Not Reported,Other"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C6" xr:uid="{00000000-0002-0000-0000-000002000000}">
       <formula1>"MDA_Wistuba,MDA_Bernatchez,MDA_Al-Atrash,MSSM_Gnjatic,MSSM_Rahman,MSSM_Kim-Schulze,MSSM_Bongers,DFCI_Wu,DFCI_Hodi,Broad_Cibulskis,Stanf_Maecker,Stanf_Bendall,Nationwide Children's Hospital,Adaptive Biotechnologies,FNLCR_MoCha,Not Reported,Other"</formula1>
@@ -3416,8 +3432,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:Z202"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="T1" workbookViewId="0">
-      <selection activeCell="S6" sqref="S6"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3539,7 +3555,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="3" spans="1:26" ht="25.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>18</v>
       </c>
@@ -3547,46 +3563,46 @@
         <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D3" t="s">
-        <v>249</v>
-      </c>
-      <c r="E3" s="6" t="s">
-        <v>265</v>
+        <v>174</v>
+      </c>
+      <c r="E3" t="s">
+        <v>251</v>
       </c>
       <c r="F3" t="s">
-        <v>259</v>
+        <v>252</v>
       </c>
       <c r="G3" t="s">
-        <v>260</v>
-      </c>
-      <c r="H3" s="6" t="s">
-        <v>269</v>
+        <v>253</v>
+      </c>
+      <c r="H3" t="s">
+        <v>254</v>
       </c>
       <c r="I3">
         <v>2</v>
       </c>
       <c r="J3" t="s">
-        <v>250</v>
+        <v>255</v>
       </c>
       <c r="K3" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="L3" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="M3" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="N3">
         <v>1</v>
       </c>
       <c r="O3" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="P3" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="Q3">
         <v>4</v>
@@ -3595,28 +3611,28 @@
         <v>3</v>
       </c>
       <c r="S3" t="s">
-        <v>251</v>
+        <v>237</v>
       </c>
       <c r="T3">
         <v>1</v>
       </c>
       <c r="U3" t="s">
-        <v>251</v>
+        <v>237</v>
       </c>
       <c r="V3" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="W3" t="s">
-        <v>252</v>
+        <v>243</v>
       </c>
       <c r="X3" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="Y3" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="4" spans="1:26" ht="25.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>18</v>
       </c>
@@ -3624,46 +3640,46 @@
         <v>2</v>
       </c>
       <c r="C4" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D4" t="s">
+        <v>175</v>
+      </c>
+      <c r="E4" t="s">
+        <v>256</v>
+      </c>
+      <c r="F4" t="s">
+        <v>257</v>
+      </c>
+      <c r="G4" t="s">
         <v>253</v>
       </c>
-      <c r="E4" s="6" t="s">
-        <v>266</v>
-      </c>
-      <c r="F4" t="s">
-        <v>261</v>
-      </c>
-      <c r="G4" t="s">
-        <v>260</v>
-      </c>
-      <c r="H4" s="6" t="s">
-        <v>270</v>
+      <c r="H4" t="s">
+        <v>258</v>
       </c>
       <c r="I4">
         <v>2</v>
       </c>
       <c r="J4" t="s">
-        <v>254</v>
+        <v>259</v>
       </c>
       <c r="K4" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="L4" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="M4" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="N4">
         <v>1</v>
       </c>
       <c r="O4" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="P4" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="Q4">
         <v>4</v>
@@ -3672,28 +3688,28 @@
         <v>3</v>
       </c>
       <c r="S4" t="s">
-        <v>251</v>
+        <v>237</v>
       </c>
       <c r="T4">
         <v>1</v>
       </c>
       <c r="U4" t="s">
-        <v>251</v>
+        <v>237</v>
       </c>
       <c r="V4" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="W4" t="s">
-        <v>252</v>
+        <v>243</v>
       </c>
       <c r="X4" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="Y4" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="5" spans="1:26" ht="25.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>18</v>
       </c>
@@ -3701,46 +3717,46 @@
         <v>3</v>
       </c>
       <c r="C5" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="D5" t="s">
-        <v>255</v>
-      </c>
-      <c r="E5" s="7" t="s">
-        <v>267</v>
+        <v>176</v>
+      </c>
+      <c r="E5" t="s">
+        <v>260</v>
       </c>
       <c r="F5" t="s">
+        <v>261</v>
+      </c>
+      <c r="G5" t="s">
+        <v>253</v>
+      </c>
+      <c r="H5" t="s">
         <v>262</v>
-      </c>
-      <c r="G5" t="s">
-        <v>260</v>
-      </c>
-      <c r="H5" s="6" t="s">
-        <v>271</v>
       </c>
       <c r="I5">
         <v>2</v>
       </c>
       <c r="J5" t="s">
-        <v>256</v>
+        <v>263</v>
       </c>
       <c r="K5" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="L5" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="M5" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="N5">
         <v>1</v>
       </c>
       <c r="O5" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="P5" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="Q5">
         <v>1</v>
@@ -3749,28 +3765,28 @@
         <v>1</v>
       </c>
       <c r="S5" t="s">
-        <v>251</v>
+        <v>237</v>
       </c>
       <c r="T5">
         <v>0</v>
       </c>
       <c r="U5" t="s">
-        <v>251</v>
+        <v>237</v>
       </c>
       <c r="V5" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="W5" t="s">
-        <v>252</v>
+        <v>243</v>
       </c>
       <c r="X5" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="Y5" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="6" spans="1:26" ht="25.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>18</v>
       </c>
@@ -3778,37 +3794,37 @@
         <v>4</v>
       </c>
       <c r="C6" t="s">
-        <v>257</v>
+        <v>166</v>
       </c>
       <c r="D6" t="s">
-        <v>258</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>268</v>
+        <v>177</v>
+      </c>
+      <c r="E6" t="s">
+        <v>264</v>
       </c>
       <c r="F6" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="G6" t="s">
-        <v>260</v>
-      </c>
-      <c r="H6" s="6" t="s">
-        <v>272</v>
+        <v>253</v>
+      </c>
+      <c r="H6" t="s">
+        <v>266</v>
       </c>
       <c r="I6">
         <v>2</v>
       </c>
       <c r="J6" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="K6" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="L6" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="M6" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -3817,7 +3833,7 @@
         <v>133</v>
       </c>
       <c r="P6" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="Q6">
         <v>1</v>
@@ -3826,22 +3842,22 @@
         <v>1</v>
       </c>
       <c r="S6" t="s">
-        <v>251</v>
+        <v>237</v>
       </c>
       <c r="T6">
         <v>0</v>
       </c>
       <c r="U6" t="s">
-        <v>251</v>
+        <v>237</v>
       </c>
       <c r="V6" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="W6" t="s">
-        <v>252</v>
+        <v>243</v>
       </c>
       <c r="X6" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="Y6" t="s">
         <v>133</v>
@@ -4855,8 +4871,8 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P3:P202" xr:uid="{00000000-0002-0000-0100-000006000000}">
       <formula1>"Whole Blood,Plasma,PBMC,Buffy Coat,Bone Marrow Mononuclear Cell,Supernatant,Cell Pellet,H&amp;E-Stained Fixed Tissue Slide Specimen,Fixed Slide,Tissue Scroll,FFPE Punch,Not Reported,Other"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="U3:U202 S3:S202" xr:uid="{00000000-0002-0000-0100-000007000000}">
-      <formula1>"Microliters,Milliliters,Nanogram per Microliter,Milligram per Milliliter,Micrograms per Microliter,Cells per Vial,Not Reported,Other"</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="S3:S202 U3:U202" xr:uid="{00000000-0002-0000-0100-000007000000}">
+      <formula1>"Microliters,Milliliters,Nanogram per Microliter,Milligram per Milliliter,Micrograms per Microliter,Cells per Vial,Slides,Not Reported,Other"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="V3:V202" xr:uid="{00000000-0002-0000-0100-000009000000}">
       <formula1>"RT,4oC,(-20)oC,(-80)oC,LN,Not Reported,Other"</formula1>
@@ -5493,55 +5509,55 @@
         <v>135</v>
       </c>
       <c r="D2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="E2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="F2" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="G2" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="H2" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="I2" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="J2" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="K2" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="L2" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="M2" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="N2" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="O2" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="P2" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="Q2" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="R2" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="S2" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="T2" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
     </row>
     <row r="3" spans="2:20" x14ac:dyDescent="0.2">
@@ -5552,55 +5568,55 @@
         <v>136</v>
       </c>
       <c r="D3" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="E3" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="F3" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="G3" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="H3" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="I3" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="J3" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="K3" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="L3" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="M3" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="N3" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="O3" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="P3" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="Q3" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="R3" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="S3" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="T3" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
     </row>
     <row r="4" spans="2:20" x14ac:dyDescent="0.2">
@@ -5608,58 +5624,58 @@
         <v>120</v>
       </c>
       <c r="C4" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="D4" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="E4" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="F4" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="G4" t="s">
         <v>133</v>
       </c>
       <c r="H4" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="I4" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="J4" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="K4" t="s">
         <v>133</v>
       </c>
       <c r="L4" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="M4" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="N4" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="O4" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="P4" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="Q4" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="R4" t="s">
         <v>133</v>
       </c>
       <c r="S4" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="T4" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
     </row>
     <row r="5" spans="2:20" x14ac:dyDescent="0.2">
@@ -5667,49 +5683,49 @@
         <v>121</v>
       </c>
       <c r="C5" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D5" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="E5" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="F5" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="G5" t="s">
         <v>134</v>
       </c>
       <c r="H5" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="I5" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="J5" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="K5" t="s">
         <v>134</v>
       </c>
       <c r="L5" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="M5" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="N5" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="O5" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="P5" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="Q5" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="R5" t="s">
         <v>134</v>
@@ -5725,38 +5741,41 @@
       <c r="B6" t="s">
         <v>122</v>
       </c>
+      <c r="C6" t="s">
+        <v>134</v>
+      </c>
       <c r="D6" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="F6" t="s">
         <v>133</v>
       </c>
       <c r="H6" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="I6" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="J6" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="L6" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="M6" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="N6" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="O6" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="P6" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="Q6" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="S6" t="s">
         <v>134</v>
@@ -5770,34 +5789,34 @@
         <v>123</v>
       </c>
       <c r="D7" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="F7" t="s">
         <v>134</v>
       </c>
       <c r="H7" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="I7" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="J7" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="L7" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="M7" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="N7" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="O7" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="P7" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="Q7" t="s">
         <v>133</v>
@@ -5808,31 +5827,31 @@
         <v>124</v>
       </c>
       <c r="D8" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="H8" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="I8" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="J8" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="L8" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="M8" t="s">
         <v>133</v>
       </c>
       <c r="N8" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="O8" t="s">
-        <v>133</v>
+        <v>237</v>
       </c>
       <c r="P8" t="s">
-        <v>133</v>
+        <v>237</v>
       </c>
       <c r="Q8" t="s">
         <v>134</v>
@@ -5843,31 +5862,31 @@
         <v>125</v>
       </c>
       <c r="D9" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="H9" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="I9" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="J9" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="L9" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="M9" t="s">
         <v>134</v>
       </c>
       <c r="N9" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="O9" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="P9" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="10" spans="2:20" x14ac:dyDescent="0.2">
@@ -5875,22 +5894,28 @@
         <v>126</v>
       </c>
       <c r="D10" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="H10" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="I10" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="J10" t="s">
         <v>133</v>
       </c>
       <c r="L10" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="N10" t="s">
-        <v>227</v>
+        <v>228</v>
+      </c>
+      <c r="O10" t="s">
+        <v>134</v>
+      </c>
+      <c r="P10" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="11" spans="2:20" x14ac:dyDescent="0.2">
@@ -5898,22 +5923,22 @@
         <v>127</v>
       </c>
       <c r="D11" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="H11" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="I11" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="J11" t="s">
         <v>134</v>
       </c>
       <c r="L11" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="N11" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
     </row>
     <row r="12" spans="2:20" x14ac:dyDescent="0.2">
@@ -5921,19 +5946,19 @@
         <v>128</v>
       </c>
       <c r="D12" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="H12" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="I12" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="L12" t="s">
         <v>133</v>
       </c>
       <c r="N12" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
     </row>
     <row r="13" spans="2:20" x14ac:dyDescent="0.2">
@@ -5941,13 +5966,13 @@
         <v>129</v>
       </c>
       <c r="D13" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="H13" t="s">
         <v>134</v>
       </c>
       <c r="I13" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="L13" t="s">
         <v>134</v>
@@ -5961,10 +5986,10 @@
         <v>130</v>
       </c>
       <c r="D14" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="I14" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="N14" t="s">
         <v>134</v>
@@ -5975,10 +6000,10 @@
         <v>131</v>
       </c>
       <c r="D15" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="I15" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
     </row>
     <row r="16" spans="2:20" x14ac:dyDescent="0.2">
@@ -5986,10 +6011,10 @@
         <v>132</v>
       </c>
       <c r="D16" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="I16" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
     </row>
     <row r="17" spans="2:9" x14ac:dyDescent="0.2">
@@ -6000,7 +6025,7 @@
         <v>133</v>
       </c>
       <c r="I17" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
     </row>
     <row r="18" spans="2:9" x14ac:dyDescent="0.2">
@@ -6011,22 +6036,22 @@
         <v>134</v>
       </c>
       <c r="I18" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
     </row>
     <row r="19" spans="2:9" x14ac:dyDescent="0.2">
       <c r="I19" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
     </row>
     <row r="20" spans="2:9" x14ac:dyDescent="0.2">
       <c r="I20" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
     </row>
     <row r="21" spans="2:9" x14ac:dyDescent="0.2">
       <c r="I21" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
     </row>
   </sheetData>

--- a/template_examples/tissue_slide_template.xlsx
+++ b/template_examples/tissue_slide_template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rbiswas/PycharmProjects/schema/cidc-schemas/template_examples/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDA0345F-3B48-B84E-B2AB-8EC33A44C575}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C0690DD-4908-FA44-A569-D00F12BF7E63}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="460" windowWidth="16100" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="460" windowWidth="16100" windowHeight="9660" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Shipment" sheetId="1" r:id="rId1"/>
@@ -176,7 +176,7 @@
         <r>
           <rPr>
             <sz val="10"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
@@ -1765,7 +1765,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1784,6 +1784,12 @@
     <font>
       <sz val="10"/>
       <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
       <name val="Tahoma"/>
       <family val="2"/>
     </font>
@@ -1872,11 +1878,11 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
+    <xf numFmtId="14" fontId="1" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" indent="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1" indent="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2218,8 +2224,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C218"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B4" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2232,10 +2238,10 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="5"/>
+      <c r="C1" s="6"/>
     </row>
     <row r="2" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
@@ -2343,7 +2349,7 @@
       <c r="B11" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C11" s="6">
+      <c r="C11" s="5">
         <v>37174</v>
       </c>
     </row>
@@ -2354,7 +2360,7 @@
       <c r="B12" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C12" s="6">
+      <c r="C12" s="5">
         <v>37539</v>
       </c>
     </row>
@@ -3432,8 +3438,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:Z202"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3443,37 +3449,37 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5"/>
-      <c r="I1" s="5" t="s">
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6"/>
+      <c r="I1" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="J1" s="5"/>
-      <c r="K1" s="5"/>
-      <c r="L1" s="5"/>
-      <c r="M1" s="5"/>
-      <c r="N1" s="5"/>
-      <c r="O1" s="5"/>
-      <c r="P1" s="5"/>
-      <c r="Q1" s="5"/>
-      <c r="R1" s="5" t="s">
+      <c r="J1" s="6"/>
+      <c r="K1" s="6"/>
+      <c r="L1" s="6"/>
+      <c r="M1" s="6"/>
+      <c r="N1" s="6"/>
+      <c r="O1" s="6"/>
+      <c r="P1" s="6"/>
+      <c r="Q1" s="6"/>
+      <c r="R1" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="S1" s="5"/>
-      <c r="T1" s="5"/>
-      <c r="U1" s="5"/>
-      <c r="V1" s="5"/>
-      <c r="W1" s="5"/>
-      <c r="X1" s="5"/>
-      <c r="Y1" s="5"/>
-      <c r="Z1" s="5"/>
+      <c r="S1" s="6"/>
+      <c r="T1" s="6"/>
+      <c r="U1" s="6"/>
+      <c r="V1" s="6"/>
+      <c r="W1" s="6"/>
+      <c r="X1" s="6"/>
+      <c r="Y1" s="6"/>
+      <c r="Z1" s="6"/>
     </row>
     <row r="2" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
@@ -3717,10 +3723,10 @@
         <v>3</v>
       </c>
       <c r="C5" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D5" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E5" t="s">
         <v>260</v>
@@ -3794,10 +3800,10 @@
         <v>4</v>
       </c>
       <c r="C6" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="D6" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="E6" t="s">
         <v>264</v>

--- a/template_examples/tissue_slide_template.xlsx
+++ b/template_examples/tissue_slide_template.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11208"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10113"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rbiswas/PycharmProjects/schema/cidc-schemas/template_examples/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C0690DD-4908-FA44-A569-D00F12BF7E63}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9A530DA-A555-E54F-A857-A5758ADDBC77}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="460" windowWidth="16100" windowHeight="9660" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1660" yWindow="1780" windowWidth="16100" windowHeight="9660" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Shipment" sheetId="1" r:id="rId1"/>
@@ -98,7 +98,7 @@
         <r>
           <rPr>
             <sz val="10"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
@@ -176,7 +176,7 @@
         <r>
           <rPr>
             <sz val="10"/>
-            <color rgb="FF000000"/>
+            <color indexed="81"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
@@ -564,11 +564,37 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
+          <t>E4412 or 10026</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000002000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
           <t>E4412</t>
         </r>
       </text>
     </comment>
-    <comment ref="H3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000002000000}">
+    <comment ref="I3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000003000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>E4412 or 10026</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000004000000}">
       <text>
         <r>
           <rPr>
@@ -581,7 +607,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000003000000}">
+    <comment ref="I4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000005000000}">
       <text>
         <r>
           <rPr>
@@ -594,7 +620,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000004000000}">
+    <comment ref="H5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000006000000}">
       <text>
         <r>
           <rPr>
@@ -607,7 +633,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000005000000}">
+    <comment ref="I5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000007000000}">
       <text>
         <r>
           <rPr>
@@ -620,7 +646,20 @@
         </r>
       </text>
     </comment>
-    <comment ref="H5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000006000000}">
+    <comment ref="H6" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000008000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>S1400I</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I6" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000009000000}">
       <text>
         <r>
           <rPr>
@@ -633,7 +672,20 @@
         </r>
       </text>
     </comment>
-    <comment ref="I5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000007000000}">
+    <comment ref="H7" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-00000A000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>S1400I</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I7" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-00000B000000}">
       <text>
         <r>
           <rPr>
@@ -646,7 +698,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H6" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000008000000}">
+    <comment ref="H8" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-00000C000000}">
       <text>
         <r>
           <rPr>
@@ -659,7 +711,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I6" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000009000000}">
+    <comment ref="I8" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-00000D000000}">
       <text>
         <r>
           <rPr>
@@ -672,7 +724,150 @@
         </r>
       </text>
     </comment>
-    <comment ref="H7" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-00000A000000}">
+    <comment ref="H9" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-00000E000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>10026</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I9" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-00000F000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>E4412</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H10" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000010000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>EAY131-Z1D</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I10" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000011000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>E4412</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H11" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000012000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>EAY131-Z1D</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I11" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000013000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>E4412</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H12" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000014000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>10021</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I12" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000015000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>E4412</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H13" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000016000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>9204</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I13" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000017000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>E4412</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H14" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000018000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>9204</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I14" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000019000000}">
       <text>
         <r>
           <rPr>
@@ -685,20 +880,20 @@
         </r>
       </text>
     </comment>
-    <comment ref="I7" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-00000B000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>E4412</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="H8" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-00000C000000}">
+    <comment ref="H15" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-00001A000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>9204</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I15" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-00001B000000}">
       <text>
         <r>
           <rPr>
@@ -711,98 +906,33 @@
         </r>
       </text>
     </comment>
-    <comment ref="I8" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-00000D000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>E4412</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="H9" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-00000E000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>S1400I</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="I9" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-00000F000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>E4412</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="H10" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000010000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Z1D</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="I10" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000011000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>E4412</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="H11" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000012000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Z1D</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="I11" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000013000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>E4412</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="H12" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000014000000}">
+    <comment ref="H16" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-00001C000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>9204</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H17" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-00001D000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>10026</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I17" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-00001E000000}">
       <text>
         <r>
           <rPr>
@@ -815,59 +945,20 @@
         </r>
       </text>
     </comment>
-    <comment ref="I12" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000015000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>E4412</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="I13" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000016000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>E4412</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="I14" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000017000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>S1400I</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="I15" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000018000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>S1400I</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="I17" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000019000000}">
+    <comment ref="H18" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-00001F000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>10026</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I18" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000020000000}">
       <text>
         <r>
           <rPr>
@@ -880,7 +971,20 @@
         </r>
       </text>
     </comment>
-    <comment ref="I18" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-00001A000000}">
+    <comment ref="H19" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000021000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>10026</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I19" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000022000000}">
       <text>
         <r>
           <rPr>
@@ -893,7 +997,20 @@
         </r>
       </text>
     </comment>
-    <comment ref="I19" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-00001B000000}">
+    <comment ref="H20" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000023000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>10026</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I20" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000024000000}">
       <text>
         <r>
           <rPr>
@@ -906,7 +1023,20 @@
         </r>
       </text>
     </comment>
-    <comment ref="I20" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-00001C000000}">
+    <comment ref="H21" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000025000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>10026</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I21" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000026000000}">
       <text>
         <r>
           <rPr>
@@ -919,16 +1049,107 @@
         </r>
       </text>
     </comment>
-    <comment ref="I21" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-00001D000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>10021</t>
+    <comment ref="H22" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000027000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>10026</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I22" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000028000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>9204</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H23" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000029000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>10026</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I23" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-00002A000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>9204</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H24" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-00002B000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>10026</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I24" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-00002C000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>9204</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H25" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-00002D000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>10026</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I25" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-00002E000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>9204</t>
         </r>
       </text>
     </comment>
@@ -937,7 +1158,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="877" uniqueCount="274">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="896" uniqueCount="294">
   <si>
     <t>#t</t>
   </si>
@@ -1353,6 +1574,12 @@
     <t>IHC</t>
   </si>
   <si>
+    <t>CyTOF</t>
+  </si>
+  <si>
+    <t>ELISA</t>
+  </si>
+  <si>
     <t>MDA_Wistuba</t>
   </si>
   <si>
@@ -1380,6 +1607,9 @@
     <t>DFCI_Hodi</t>
   </si>
   <si>
+    <t>DFCI_Severgnini</t>
+  </si>
+  <si>
     <t>Broad_Cibulskis</t>
   </si>
   <si>
@@ -1461,49 +1691,88 @@
     <t>On_Treatment</t>
   </si>
   <si>
+    <t>Response</t>
+  </si>
+  <si>
+    <t>Relapse</t>
+  </si>
+  <si>
+    <t>Day_8</t>
+  </si>
+  <si>
+    <t>Cycle_2_Day_1</t>
+  </si>
+  <si>
+    <t>T0</t>
+  </si>
+  <si>
+    <t>T1</t>
+  </si>
+  <si>
+    <t>T2</t>
+  </si>
+  <si>
+    <t>T3</t>
+  </si>
+  <si>
+    <t>T4</t>
+  </si>
+  <si>
+    <t>T5</t>
+  </si>
+  <si>
+    <t>T6</t>
+  </si>
+  <si>
+    <t>End_of_Treatment</t>
+  </si>
+  <si>
+    <t>Not_reported</t>
+  </si>
+  <si>
+    <t>Arm_A</t>
+  </si>
+  <si>
+    <t>Arm_B</t>
+  </si>
+  <si>
+    <t>Arm_C</t>
+  </si>
+  <si>
+    <t>Arm_D</t>
+  </si>
+  <si>
+    <t>Arm_E</t>
+  </si>
+  <si>
+    <t>Arm_F</t>
+  </si>
+  <si>
+    <t>Arm_G</t>
+  </si>
+  <si>
+    <t>Arm_H</t>
+  </si>
+  <si>
+    <t>Arm_I</t>
+  </si>
+  <si>
+    <t>Arm_X</t>
+  </si>
+  <si>
+    <t>Arm_Y</t>
+  </si>
+  <si>
     <t>Arm_Z</t>
   </si>
   <si>
-    <t>Arm_A</t>
-  </si>
-  <si>
-    <t>Arm_B</t>
-  </si>
-  <si>
-    <t>Arm_C</t>
-  </si>
-  <si>
-    <t>Arm_Y</t>
-  </si>
-  <si>
-    <t>Arm_D</t>
-  </si>
-  <si>
-    <t>Arm_E</t>
-  </si>
-  <si>
-    <t>Arm_F</t>
-  </si>
-  <si>
-    <t>Arm_X</t>
-  </si>
-  <si>
-    <t>Arm_G</t>
-  </si>
-  <si>
-    <t>Arm_H</t>
-  </si>
-  <si>
-    <t>Arm_I</t>
-  </si>
-  <si>
     <t>Arm_1</t>
   </si>
   <si>
     <t>Arm_2</t>
   </si>
   <si>
-    <t>Z1D</t>
+    <t>EAY131-Z1D</t>
   </si>
   <si>
     <t>NSCLC_A</t>
@@ -1521,6 +1790,18 @@
     <t>CRC_B</t>
   </si>
   <si>
+    <t>Dose_A</t>
+  </si>
+  <si>
+    <t>Dose_B</t>
+  </si>
+  <si>
+    <t>Dose_C</t>
+  </si>
+  <si>
+    <t>Dose_D</t>
+  </si>
+  <si>
     <t>Tumor Tissue</t>
   </si>
   <si>
@@ -1692,6 +1973,24 @@
     <t>Sample received from CIMAC</t>
   </si>
   <si>
+    <t>test_prism_trial_id_slide</t>
+  </si>
+  <si>
+    <t>test_prism_trial_id</t>
+  </si>
+  <si>
+    <t>TrackN</t>
+  </si>
+  <si>
+    <t>AccN</t>
+  </si>
+  <si>
+    <t>ship from</t>
+  </si>
+  <si>
+    <t>ship to</t>
+  </si>
+  <si>
     <t>TTTPP801</t>
   </si>
   <si>
@@ -1741,24 +2040,6 @@
   </si>
   <si>
     <t>A4</t>
-  </si>
-  <si>
-    <t>test_prism_trial_id</t>
-  </si>
-  <si>
-    <t>TrackN</t>
-  </si>
-  <si>
-    <t>AccN</t>
-  </si>
-  <si>
-    <t>ship from</t>
-  </si>
-  <si>
-    <t>ship to</t>
-  </si>
-  <si>
-    <t>test_prism_trial_id_slide</t>
   </si>
 </sst>
 </file>
@@ -1878,11 +2159,11 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
     <xf numFmtId="14" fontId="1" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2224,8 +2505,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C218"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView topLeftCell="B7" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2238,10 +2519,10 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="6"/>
+      <c r="C1" s="5"/>
     </row>
     <row r="2" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
@@ -2251,7 +2532,7 @@
         <v>3</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
@@ -2262,7 +2543,7 @@
         <v>4</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
@@ -2295,7 +2576,7 @@
         <v>7</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
@@ -2306,7 +2587,7 @@
         <v>8</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
@@ -2317,7 +2598,7 @@
         <v>9</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
@@ -2328,7 +2609,7 @@
         <v>10</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
@@ -2349,7 +2630,7 @@
       <c r="B11" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C11" s="5">
+      <c r="C11" s="6">
         <v>37174</v>
       </c>
     </row>
@@ -2360,7 +2641,7 @@
       <c r="B12" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C12" s="5">
+      <c r="C12" s="6">
         <v>37539</v>
       </c>
     </row>
@@ -2372,7 +2653,7 @@
         <v>14</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
@@ -2383,7 +2664,7 @@
         <v>15</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
@@ -2394,7 +2675,7 @@
         <v>16</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.2">
@@ -3411,10 +3692,10 @@
       <formula1>"1,2,3,4,5,6,7,8,9,10,11,12,13,14,15,Not Reported,Other"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C5" xr:uid="{00000000-0002-0000-0000-000001000000}">
-      <formula1>"Olink,WES,IHC,Not Reported,Other"</formula1>
+      <formula1>"Olink,WES,IHC,CyTOF,ELISA"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C6" xr:uid="{00000000-0002-0000-0000-000002000000}">
-      <formula1>"MDA_Wistuba,MDA_Bernatchez,MDA_Al-Atrash,MSSM_Gnjatic,MSSM_Rahman,MSSM_Kim-Schulze,MSSM_Bongers,DFCI_Wu,DFCI_Hodi,Broad_Cibulskis,Stanf_Maecker,Stanf_Bendall,Nationwide Children's Hospital,Adaptive Biotechnologies,FNLCR_MoCha,Not Reported,Other"</formula1>
+      <formula1>"MDA_Wistuba,MDA_Bernatchez,MDA_Al-Atrash,MSSM_Gnjatic,MSSM_Rahman,MSSM_Kim-Schulze,MSSM_Bongers,DFCI_Wu,DFCI_Hodi,DFCI_Severgnini,Broad_Cibulskis,Stanf_Maecker,Stanf_Bendall,Nationwide Children's Hospital,Adaptive Biotechnologies,FNLCR_MoCha"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C7" xr:uid="{00000000-0002-0000-0000-000003000000}">
       <formula1>"FEDEX,USPS,UPS,Inter-Site Delivery"</formula1>
@@ -3439,7 +3720,7 @@
   <dimension ref="A1:Z202"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3449,37 +3730,37 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
-      <c r="H1" s="6"/>
-      <c r="I1" s="6" t="s">
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="5"/>
+      <c r="I1" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="J1" s="6"/>
-      <c r="K1" s="6"/>
-      <c r="L1" s="6"/>
-      <c r="M1" s="6"/>
-      <c r="N1" s="6"/>
-      <c r="O1" s="6"/>
-      <c r="P1" s="6"/>
-      <c r="Q1" s="6"/>
-      <c r="R1" s="6" t="s">
+      <c r="J1" s="5"/>
+      <c r="K1" s="5"/>
+      <c r="L1" s="5"/>
+      <c r="M1" s="5"/>
+      <c r="N1" s="5"/>
+      <c r="O1" s="5"/>
+      <c r="P1" s="5"/>
+      <c r="Q1" s="5"/>
+      <c r="R1" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="S1" s="6"/>
-      <c r="T1" s="6"/>
-      <c r="U1" s="6"/>
-      <c r="V1" s="6"/>
-      <c r="W1" s="6"/>
-      <c r="X1" s="6"/>
-      <c r="Y1" s="6"/>
-      <c r="Z1" s="6"/>
+      <c r="S1" s="5"/>
+      <c r="T1" s="5"/>
+      <c r="U1" s="5"/>
+      <c r="V1" s="5"/>
+      <c r="W1" s="5"/>
+      <c r="X1" s="5"/>
+      <c r="Y1" s="5"/>
+      <c r="Z1" s="5"/>
     </row>
     <row r="2" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
@@ -3569,46 +3850,46 @@
         <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="D3" t="s">
-        <v>174</v>
+        <v>201</v>
       </c>
       <c r="E3" t="s">
-        <v>251</v>
+        <v>277</v>
       </c>
       <c r="F3" t="s">
-        <v>252</v>
+        <v>278</v>
       </c>
       <c r="G3" t="s">
-        <v>253</v>
+        <v>279</v>
       </c>
       <c r="H3" t="s">
-        <v>254</v>
+        <v>280</v>
       </c>
       <c r="I3">
         <v>2</v>
       </c>
       <c r="J3" t="s">
-        <v>255</v>
+        <v>281</v>
       </c>
       <c r="K3" t="s">
-        <v>194</v>
+        <v>214</v>
       </c>
       <c r="L3" t="s">
-        <v>202</v>
+        <v>222</v>
       </c>
       <c r="M3" t="s">
-        <v>206</v>
+        <v>226</v>
       </c>
       <c r="N3">
         <v>1</v>
       </c>
       <c r="O3" t="s">
-        <v>214</v>
+        <v>234</v>
       </c>
       <c r="P3" t="s">
-        <v>228</v>
+        <v>248</v>
       </c>
       <c r="Q3">
         <v>4</v>
@@ -3617,22 +3898,22 @@
         <v>3</v>
       </c>
       <c r="S3" t="s">
-        <v>237</v>
+        <v>257</v>
       </c>
       <c r="T3">
         <v>1</v>
       </c>
       <c r="U3" t="s">
-        <v>237</v>
+        <v>257</v>
       </c>
       <c r="V3" t="s">
-        <v>238</v>
+        <v>258</v>
       </c>
       <c r="W3" t="s">
-        <v>243</v>
+        <v>263</v>
       </c>
       <c r="X3" t="s">
-        <v>245</v>
+        <v>265</v>
       </c>
       <c r="Y3" t="s">
         <v>133</v>
@@ -3646,46 +3927,46 @@
         <v>2</v>
       </c>
       <c r="C4" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="D4" t="s">
-        <v>175</v>
+        <v>190</v>
       </c>
       <c r="E4" t="s">
-        <v>256</v>
+        <v>282</v>
       </c>
       <c r="F4" t="s">
-        <v>257</v>
+        <v>283</v>
       </c>
       <c r="G4" t="s">
-        <v>253</v>
+        <v>279</v>
       </c>
       <c r="H4" t="s">
-        <v>258</v>
+        <v>284</v>
       </c>
       <c r="I4">
         <v>2</v>
       </c>
       <c r="J4" t="s">
-        <v>259</v>
+        <v>285</v>
       </c>
       <c r="K4" t="s">
-        <v>194</v>
+        <v>214</v>
       </c>
       <c r="L4" t="s">
-        <v>202</v>
+        <v>222</v>
       </c>
       <c r="M4" t="s">
-        <v>206</v>
+        <v>226</v>
       </c>
       <c r="N4">
         <v>1</v>
       </c>
       <c r="O4" t="s">
-        <v>217</v>
+        <v>237</v>
       </c>
       <c r="P4" t="s">
-        <v>228</v>
+        <v>248</v>
       </c>
       <c r="Q4">
         <v>4</v>
@@ -3694,22 +3975,22 @@
         <v>3</v>
       </c>
       <c r="S4" t="s">
-        <v>237</v>
+        <v>257</v>
       </c>
       <c r="T4">
         <v>1</v>
       </c>
       <c r="U4" t="s">
-        <v>237</v>
+        <v>257</v>
       </c>
       <c r="V4" t="s">
-        <v>238</v>
+        <v>258</v>
       </c>
       <c r="W4" t="s">
-        <v>243</v>
+        <v>263</v>
       </c>
       <c r="X4" t="s">
-        <v>245</v>
+        <v>265</v>
       </c>
       <c r="Y4" t="s">
         <v>133</v>
@@ -3723,46 +4004,46 @@
         <v>3</v>
       </c>
       <c r="C5" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="D5" t="s">
-        <v>175</v>
+        <v>190</v>
       </c>
       <c r="E5" t="s">
-        <v>260</v>
+        <v>286</v>
       </c>
       <c r="F5" t="s">
-        <v>261</v>
+        <v>287</v>
       </c>
       <c r="G5" t="s">
-        <v>253</v>
+        <v>279</v>
       </c>
       <c r="H5" t="s">
-        <v>262</v>
+        <v>288</v>
       </c>
       <c r="I5">
         <v>2</v>
       </c>
       <c r="J5" t="s">
-        <v>263</v>
+        <v>289</v>
       </c>
       <c r="K5" t="s">
-        <v>194</v>
+        <v>214</v>
       </c>
       <c r="L5" t="s">
-        <v>203</v>
+        <v>223</v>
       </c>
       <c r="M5" t="s">
-        <v>206</v>
+        <v>226</v>
       </c>
       <c r="N5">
         <v>1</v>
       </c>
       <c r="O5" t="s">
-        <v>217</v>
+        <v>237</v>
       </c>
       <c r="P5" t="s">
-        <v>227</v>
+        <v>247</v>
       </c>
       <c r="Q5">
         <v>1</v>
@@ -3771,22 +4052,22 @@
         <v>1</v>
       </c>
       <c r="S5" t="s">
-        <v>237</v>
+        <v>257</v>
       </c>
       <c r="T5">
         <v>0</v>
       </c>
       <c r="U5" t="s">
-        <v>237</v>
+        <v>257</v>
       </c>
       <c r="V5" t="s">
-        <v>238</v>
+        <v>258</v>
       </c>
       <c r="W5" t="s">
-        <v>243</v>
+        <v>263</v>
       </c>
       <c r="X5" t="s">
-        <v>245</v>
+        <v>265</v>
       </c>
       <c r="Y5" t="s">
         <v>133</v>
@@ -3800,37 +4081,37 @@
         <v>4</v>
       </c>
       <c r="C6" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="D6" t="s">
-        <v>174</v>
+        <v>201</v>
       </c>
       <c r="E6" t="s">
-        <v>264</v>
+        <v>290</v>
       </c>
       <c r="F6" t="s">
-        <v>265</v>
+        <v>291</v>
       </c>
       <c r="G6" t="s">
-        <v>253</v>
+        <v>279</v>
       </c>
       <c r="H6" t="s">
-        <v>266</v>
+        <v>292</v>
       </c>
       <c r="I6">
         <v>2</v>
       </c>
       <c r="J6" t="s">
-        <v>267</v>
+        <v>293</v>
       </c>
       <c r="K6" t="s">
-        <v>194</v>
+        <v>214</v>
       </c>
       <c r="L6" t="s">
-        <v>203</v>
+        <v>223</v>
       </c>
       <c r="M6" t="s">
-        <v>206</v>
+        <v>226</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -3839,7 +4120,7 @@
         <v>133</v>
       </c>
       <c r="P6" t="s">
-        <v>227</v>
+        <v>247</v>
       </c>
       <c r="Q6">
         <v>1</v>
@@ -3848,22 +4129,22 @@
         <v>1</v>
       </c>
       <c r="S6" t="s">
-        <v>237</v>
+        <v>257</v>
       </c>
       <c r="T6">
         <v>0</v>
       </c>
       <c r="U6" t="s">
-        <v>237</v>
+        <v>257</v>
       </c>
       <c r="V6" t="s">
-        <v>238</v>
+        <v>258</v>
       </c>
       <c r="W6" t="s">
-        <v>243</v>
+        <v>263</v>
       </c>
       <c r="X6" t="s">
-        <v>245</v>
+        <v>265</v>
       </c>
       <c r="Y6" t="s">
         <v>133</v>
@@ -4857,10 +5138,10 @@
   </mergeCells>
   <dataValidations count="12">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3:C202" xr:uid="{00000000-0002-0000-0100-000000000000}">
-      <formula1>"Baseline,Pre_Day_1_Cycle_2,Restaging,Off_study,Cycle_2_Week_3,Cycle_4_Week_7,Cycle_5_Week_9,Progression,Cycle_3,End_of_treatment,On_Treatment,Other"</formula1>
+      <formula1>"Baseline,Pre_Day_1_Cycle_2,Restaging,Off_study,Cycle_2_Week_3,Cycle_4_Week_7,Cycle_5_Week_9,Progression,Cycle_3,End_of_treatment,On_Treatment,Response,Relapse,Day_8,Cycle_2_Day_1,T0,T1,T2,T3,T4,T5,T6,End_of_Treatment,Progression,Other,Not_reported"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D3:D202" xr:uid="{00000000-0002-0000-0100-000001000000}">
-      <formula1>"Arm_Z,Arm_A,Arm_B,Arm_C,Arm_Y,Arm_D,Arm_E,Arm_F,Arm_X,Arm_G,Arm_H,Arm_I,Arm_1,Arm_2,Z1D,NSCLC_A,NSCLC_B,NSCLC_C,CRC_A,CRC_B"</formula1>
+      <formula1>"Arm_A,Arm_B,Arm_C,Arm_D,Arm_E,Arm_F,Arm_G,Arm_H,Arm_I,Arm_X,Arm_Y,Arm_Z,Arm_1,Arm_2,EAY131-Z1D,NSCLC_A,NSCLC_B,NSCLC_C,CRC_A,CRC_B,Dose_A,Dose_B,Dose_C,Dose_D,Other,Not_reported"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K3:K202" xr:uid="{00000000-0002-0000-0100-000002000000}">
       <formula1>"Tumor Tissue,Normal Tissue,Skin Tissue,Blood,Bone Marrow,Cerebrospinal Fluid,Lymph Node,Stool,Not Reported,Other"</formula1>
@@ -5439,7 +5720,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="B1:T21"/>
+  <dimension ref="B1:T27"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -5515,55 +5796,55 @@
         <v>135</v>
       </c>
       <c r="D2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="E2" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="F2" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="G2" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="H2" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="I2" t="s">
-        <v>174</v>
+        <v>190</v>
       </c>
       <c r="J2" t="s">
-        <v>194</v>
+        <v>214</v>
       </c>
       <c r="K2" t="s">
-        <v>202</v>
+        <v>222</v>
       </c>
       <c r="L2" t="s">
-        <v>204</v>
+        <v>224</v>
       </c>
       <c r="M2" t="s">
-        <v>214</v>
+        <v>234</v>
       </c>
       <c r="N2" t="s">
-        <v>220</v>
+        <v>240</v>
       </c>
       <c r="O2" t="s">
-        <v>231</v>
+        <v>251</v>
       </c>
       <c r="P2" t="s">
-        <v>231</v>
+        <v>251</v>
       </c>
       <c r="Q2" t="s">
-        <v>238</v>
+        <v>258</v>
       </c>
       <c r="R2" t="s">
-        <v>243</v>
+        <v>263</v>
       </c>
       <c r="S2" t="s">
-        <v>245</v>
+        <v>265</v>
       </c>
       <c r="T2" t="s">
-        <v>248</v>
+        <v>268</v>
       </c>
     </row>
     <row r="3" spans="2:20" x14ac:dyDescent="0.2">
@@ -5574,55 +5855,55 @@
         <v>136</v>
       </c>
       <c r="D3" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="E3" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="F3" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="G3" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="H3" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="I3" t="s">
-        <v>175</v>
+        <v>191</v>
       </c>
       <c r="J3" t="s">
-        <v>195</v>
+        <v>215</v>
       </c>
       <c r="K3" t="s">
-        <v>203</v>
+        <v>223</v>
       </c>
       <c r="L3" t="s">
-        <v>205</v>
+        <v>225</v>
       </c>
       <c r="M3" t="s">
-        <v>215</v>
+        <v>235</v>
       </c>
       <c r="N3" t="s">
-        <v>221</v>
+        <v>241</v>
       </c>
       <c r="O3" t="s">
-        <v>232</v>
+        <v>252</v>
       </c>
       <c r="P3" t="s">
-        <v>232</v>
+        <v>252</v>
       </c>
       <c r="Q3" t="s">
-        <v>239</v>
+        <v>259</v>
       </c>
       <c r="R3" t="s">
-        <v>244</v>
+        <v>264</v>
       </c>
       <c r="S3" t="s">
-        <v>246</v>
+        <v>266</v>
       </c>
       <c r="T3" t="s">
-        <v>249</v>
+        <v>269</v>
       </c>
     </row>
     <row r="4" spans="2:20" x14ac:dyDescent="0.2">
@@ -5633,55 +5914,55 @@
         <v>137</v>
       </c>
       <c r="D4" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="E4" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="F4" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="G4" t="s">
         <v>133</v>
       </c>
       <c r="H4" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="I4" t="s">
-        <v>176</v>
+        <v>192</v>
       </c>
       <c r="J4" t="s">
-        <v>196</v>
+        <v>216</v>
       </c>
       <c r="K4" t="s">
         <v>133</v>
       </c>
       <c r="L4" t="s">
-        <v>206</v>
+        <v>226</v>
       </c>
       <c r="M4" t="s">
-        <v>216</v>
+        <v>236</v>
       </c>
       <c r="N4" t="s">
-        <v>222</v>
+        <v>242</v>
       </c>
       <c r="O4" t="s">
-        <v>233</v>
+        <v>253</v>
       </c>
       <c r="P4" t="s">
-        <v>233</v>
+        <v>253</v>
       </c>
       <c r="Q4" t="s">
-        <v>240</v>
+        <v>260</v>
       </c>
       <c r="R4" t="s">
         <v>133</v>
       </c>
       <c r="S4" t="s">
-        <v>247</v>
+        <v>267</v>
       </c>
       <c r="T4" t="s">
-        <v>250</v>
+        <v>270</v>
       </c>
     </row>
     <row r="5" spans="2:20" x14ac:dyDescent="0.2">
@@ -5689,49 +5970,49 @@
         <v>121</v>
       </c>
       <c r="C5" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="D5" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="E5" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="F5" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="G5" t="s">
         <v>134</v>
       </c>
       <c r="H5" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="I5" t="s">
-        <v>177</v>
+        <v>193</v>
       </c>
       <c r="J5" t="s">
-        <v>197</v>
+        <v>217</v>
       </c>
       <c r="K5" t="s">
         <v>134</v>
       </c>
       <c r="L5" t="s">
-        <v>207</v>
+        <v>227</v>
       </c>
       <c r="M5" t="s">
-        <v>217</v>
+        <v>237</v>
       </c>
       <c r="N5" t="s">
-        <v>223</v>
+        <v>243</v>
       </c>
       <c r="O5" t="s">
-        <v>234</v>
+        <v>254</v>
       </c>
       <c r="P5" t="s">
-        <v>234</v>
+        <v>254</v>
       </c>
       <c r="Q5" t="s">
-        <v>241</v>
+        <v>261</v>
       </c>
       <c r="R5" t="s">
         <v>134</v>
@@ -5748,40 +6029,40 @@
         <v>122</v>
       </c>
       <c r="C6" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="D6" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="F6" t="s">
         <v>133</v>
       </c>
       <c r="H6" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="I6" t="s">
-        <v>178</v>
+        <v>194</v>
       </c>
       <c r="J6" t="s">
-        <v>198</v>
+        <v>218</v>
       </c>
       <c r="L6" t="s">
-        <v>208</v>
+        <v>228</v>
       </c>
       <c r="M6" t="s">
-        <v>218</v>
+        <v>238</v>
       </c>
       <c r="N6" t="s">
-        <v>224</v>
+        <v>244</v>
       </c>
       <c r="O6" t="s">
-        <v>235</v>
+        <v>255</v>
       </c>
       <c r="P6" t="s">
-        <v>235</v>
+        <v>255</v>
       </c>
       <c r="Q6" t="s">
-        <v>242</v>
+        <v>262</v>
       </c>
       <c r="S6" t="s">
         <v>134</v>
@@ -5795,34 +6076,34 @@
         <v>123</v>
       </c>
       <c r="D7" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="F7" t="s">
         <v>134</v>
       </c>
       <c r="H7" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="I7" t="s">
-        <v>179</v>
+        <v>195</v>
       </c>
       <c r="J7" t="s">
-        <v>199</v>
+        <v>219</v>
       </c>
       <c r="L7" t="s">
-        <v>209</v>
+        <v>229</v>
       </c>
       <c r="M7" t="s">
-        <v>219</v>
+        <v>239</v>
       </c>
       <c r="N7" t="s">
-        <v>225</v>
+        <v>245</v>
       </c>
       <c r="O7" t="s">
-        <v>236</v>
+        <v>256</v>
       </c>
       <c r="P7" t="s">
-        <v>236</v>
+        <v>256</v>
       </c>
       <c r="Q7" t="s">
         <v>133</v>
@@ -5833,31 +6114,31 @@
         <v>124</v>
       </c>
       <c r="D8" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="H8" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="I8" t="s">
-        <v>180</v>
+        <v>196</v>
       </c>
       <c r="J8" t="s">
-        <v>200</v>
+        <v>220</v>
       </c>
       <c r="L8" t="s">
-        <v>210</v>
+        <v>230</v>
       </c>
       <c r="M8" t="s">
         <v>133</v>
       </c>
       <c r="N8" t="s">
-        <v>226</v>
+        <v>246</v>
       </c>
       <c r="O8" t="s">
-        <v>237</v>
+        <v>257</v>
       </c>
       <c r="P8" t="s">
-        <v>237</v>
+        <v>257</v>
       </c>
       <c r="Q8" t="s">
         <v>134</v>
@@ -5868,25 +6149,25 @@
         <v>125</v>
       </c>
       <c r="D9" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="H9" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="I9" t="s">
-        <v>181</v>
+        <v>197</v>
       </c>
       <c r="J9" t="s">
-        <v>201</v>
+        <v>221</v>
       </c>
       <c r="L9" t="s">
-        <v>211</v>
+        <v>231</v>
       </c>
       <c r="M9" t="s">
         <v>134</v>
       </c>
       <c r="N9" t="s">
-        <v>227</v>
+        <v>247</v>
       </c>
       <c r="O9" t="s">
         <v>133</v>
@@ -5900,22 +6181,22 @@
         <v>126</v>
       </c>
       <c r="D10" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="H10" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="I10" t="s">
-        <v>182</v>
+        <v>198</v>
       </c>
       <c r="J10" t="s">
         <v>133</v>
       </c>
       <c r="L10" t="s">
-        <v>212</v>
+        <v>232</v>
       </c>
       <c r="N10" t="s">
-        <v>228</v>
+        <v>248</v>
       </c>
       <c r="O10" t="s">
         <v>134</v>
@@ -5929,22 +6210,22 @@
         <v>127</v>
       </c>
       <c r="D11" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="H11" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="I11" t="s">
-        <v>183</v>
+        <v>199</v>
       </c>
       <c r="J11" t="s">
         <v>134</v>
       </c>
       <c r="L11" t="s">
-        <v>213</v>
+        <v>233</v>
       </c>
       <c r="N11" t="s">
-        <v>229</v>
+        <v>249</v>
       </c>
     </row>
     <row r="12" spans="2:20" x14ac:dyDescent="0.2">
@@ -5952,19 +6233,19 @@
         <v>128</v>
       </c>
       <c r="D12" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="H12" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="I12" t="s">
-        <v>184</v>
+        <v>200</v>
       </c>
       <c r="L12" t="s">
         <v>133</v>
       </c>
       <c r="N12" t="s">
-        <v>230</v>
+        <v>250</v>
       </c>
     </row>
     <row r="13" spans="2:20" x14ac:dyDescent="0.2">
@@ -5972,13 +6253,13 @@
         <v>129</v>
       </c>
       <c r="D13" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="H13" t="s">
-        <v>134</v>
+        <v>177</v>
       </c>
       <c r="I13" t="s">
-        <v>185</v>
+        <v>201</v>
       </c>
       <c r="L13" t="s">
         <v>134</v>
@@ -5992,10 +6273,13 @@
         <v>130</v>
       </c>
       <c r="D14" t="s">
-        <v>150</v>
+        <v>152</v>
+      </c>
+      <c r="H14" t="s">
+        <v>178</v>
       </c>
       <c r="I14" t="s">
-        <v>186</v>
+        <v>202</v>
       </c>
       <c r="N14" t="s">
         <v>134</v>
@@ -6006,10 +6290,13 @@
         <v>131</v>
       </c>
       <c r="D15" t="s">
-        <v>151</v>
+        <v>153</v>
+      </c>
+      <c r="H15" t="s">
+        <v>179</v>
       </c>
       <c r="I15" t="s">
-        <v>187</v>
+        <v>203</v>
       </c>
     </row>
     <row r="16" spans="2:20" x14ac:dyDescent="0.2">
@@ -6017,10 +6304,13 @@
         <v>132</v>
       </c>
       <c r="D16" t="s">
-        <v>152</v>
+        <v>154</v>
+      </c>
+      <c r="H16" t="s">
+        <v>180</v>
       </c>
       <c r="I16" t="s">
-        <v>188</v>
+        <v>204</v>
       </c>
     </row>
     <row r="17" spans="2:9" x14ac:dyDescent="0.2">
@@ -6028,36 +6318,96 @@
         <v>133</v>
       </c>
       <c r="D17" t="s">
-        <v>133</v>
+        <v>155</v>
+      </c>
+      <c r="H17" t="s">
+        <v>181</v>
       </c>
       <c r="I17" t="s">
-        <v>189</v>
+        <v>205</v>
       </c>
     </row>
     <row r="18" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B18" t="s">
         <v>134</v>
       </c>
-      <c r="D18" t="s">
+      <c r="H18" t="s">
+        <v>182</v>
+      </c>
+      <c r="I18" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="19" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="H19" t="s">
+        <v>183</v>
+      </c>
+      <c r="I19" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="20" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="H20" t="s">
+        <v>184</v>
+      </c>
+      <c r="I20" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="21" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="H21" t="s">
+        <v>185</v>
+      </c>
+      <c r="I21" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="22" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="H22" t="s">
+        <v>186</v>
+      </c>
+      <c r="I22" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="23" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="H23" t="s">
+        <v>187</v>
+      </c>
+      <c r="I23" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="24" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="H24" t="s">
+        <v>188</v>
+      </c>
+      <c r="I24" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="25" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="H25" t="s">
+        <v>173</v>
+      </c>
+      <c r="I25" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="26" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="H26" t="s">
         <v>134</v>
       </c>
-      <c r="I18" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="I19" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="I20" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="I21" t="s">
-        <v>193</v>
+      <c r="I26" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="27" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="H27" t="s">
+        <v>189</v>
+      </c>
+      <c r="I27" t="s">
+        <v>189</v>
       </c>
     </row>
   </sheetData>

--- a/template_examples/tissue_slide_template.xlsx
+++ b/template_examples/tissue_slide_template.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10113"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10713"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rbiswas/PycharmProjects/schema/cidc-schemas/template_examples/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pavel/code/cidc-schemas/template_examples/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9A530DA-A555-E54F-A857-A5758ADDBC77}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE645B70-26AE-E24D-913B-C20CDE69A148}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1660" yWindow="1780" windowWidth="16100" windowHeight="9660" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7120" yWindow="27700" windowWidth="16100" windowHeight="9660" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Shipment" sheetId="1" r:id="rId1"/>
@@ -1158,7 +1158,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="896" uniqueCount="294">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="896" uniqueCount="292">
   <si>
     <t>#t</t>
   </si>
@@ -1991,9 +1991,6 @@
     <t>ship to</t>
   </si>
   <si>
-    <t>TTTPP801</t>
-  </si>
-  <si>
     <t>TRIALGROUP 1</t>
   </si>
   <si>
@@ -2006,9 +2003,6 @@
     <t>A1</t>
   </si>
   <si>
-    <t>TTTPP802</t>
-  </si>
-  <si>
     <t>TRIALGROUP 2</t>
   </si>
   <si>
@@ -2018,9 +2012,6 @@
     <t>A2</t>
   </si>
   <si>
-    <t>TTTPP803</t>
-  </si>
-  <si>
     <t>TRIALGROUP 3</t>
   </si>
   <si>
@@ -2040,6 +2031,9 @@
   </si>
   <si>
     <t>A4</t>
+  </si>
+  <si>
+    <t>TTTPP8</t>
   </si>
 </sst>
 </file>
@@ -2159,11 +2153,11 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
+    <xf numFmtId="14" fontId="1" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" indent="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1" indent="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2519,10 +2513,10 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="5"/>
+      <c r="C1" s="6"/>
     </row>
     <row r="2" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
@@ -2630,7 +2624,7 @@
       <c r="B11" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C11" s="6">
+      <c r="C11" s="5">
         <v>37174</v>
       </c>
     </row>
@@ -2641,7 +2635,7 @@
       <c r="B12" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C12" s="6">
+      <c r="C12" s="5">
         <v>37539</v>
       </c>
     </row>
@@ -3719,8 +3713,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:Z202"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3730,37 +3724,37 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5"/>
-      <c r="I1" s="5" t="s">
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6"/>
+      <c r="I1" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="J1" s="5"/>
-      <c r="K1" s="5"/>
-      <c r="L1" s="5"/>
-      <c r="M1" s="5"/>
-      <c r="N1" s="5"/>
-      <c r="O1" s="5"/>
-      <c r="P1" s="5"/>
-      <c r="Q1" s="5"/>
-      <c r="R1" s="5" t="s">
+      <c r="J1" s="6"/>
+      <c r="K1" s="6"/>
+      <c r="L1" s="6"/>
+      <c r="M1" s="6"/>
+      <c r="N1" s="6"/>
+      <c r="O1" s="6"/>
+      <c r="P1" s="6"/>
+      <c r="Q1" s="6"/>
+      <c r="R1" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="S1" s="5"/>
-      <c r="T1" s="5"/>
-      <c r="U1" s="5"/>
-      <c r="V1" s="5"/>
-      <c r="W1" s="5"/>
-      <c r="X1" s="5"/>
-      <c r="Y1" s="5"/>
-      <c r="Z1" s="5"/>
+      <c r="S1" s="6"/>
+      <c r="T1" s="6"/>
+      <c r="U1" s="6"/>
+      <c r="V1" s="6"/>
+      <c r="W1" s="6"/>
+      <c r="X1" s="6"/>
+      <c r="Y1" s="6"/>
+      <c r="Z1" s="6"/>
     </row>
     <row r="2" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
@@ -3853,25 +3847,25 @@
         <v>166</v>
       </c>
       <c r="D3" t="s">
-        <v>201</v>
+        <v>190</v>
       </c>
       <c r="E3" t="s">
+        <v>291</v>
+      </c>
+      <c r="F3" t="s">
         <v>277</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
         <v>278</v>
       </c>
-      <c r="G3" t="s">
+      <c r="H3" t="s">
         <v>279</v>
-      </c>
-      <c r="H3" t="s">
-        <v>280</v>
       </c>
       <c r="I3">
         <v>2</v>
       </c>
       <c r="J3" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="K3" t="s">
         <v>214</v>
@@ -3933,22 +3927,22 @@
         <v>190</v>
       </c>
       <c r="E4" t="s">
+        <v>291</v>
+      </c>
+      <c r="F4" t="s">
+        <v>281</v>
+      </c>
+      <c r="G4" t="s">
+        <v>278</v>
+      </c>
+      <c r="H4" t="s">
         <v>282</v>
-      </c>
-      <c r="F4" t="s">
-        <v>283</v>
-      </c>
-      <c r="G4" t="s">
-        <v>279</v>
-      </c>
-      <c r="H4" t="s">
-        <v>284</v>
       </c>
       <c r="I4">
         <v>2</v>
       </c>
       <c r="J4" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="K4" t="s">
         <v>214</v>
@@ -4010,22 +4004,22 @@
         <v>190</v>
       </c>
       <c r="E5" t="s">
-        <v>286</v>
+        <v>291</v>
       </c>
       <c r="F5" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="G5" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="H5" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="I5">
         <v>2</v>
       </c>
       <c r="J5" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="K5" t="s">
         <v>214</v>
@@ -4087,22 +4081,22 @@
         <v>201</v>
       </c>
       <c r="E6" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="F6" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="G6" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="H6" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="I6">
         <v>2</v>
       </c>
       <c r="J6" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="K6" t="s">
         <v>214</v>

--- a/template_examples/tissue_slide_template.xlsx
+++ b/template_examples/tissue_slide_template.xlsx
@@ -987,7 +987,7 @@
     <row r="1" ht="16" customHeight="1" thickBot="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>#t</t>
+          <t>#title</t>
         </is>
       </c>
       <c r="B1" s="6" t="inlineStr">
@@ -1000,7 +1000,7 @@
     <row r="2" ht="17" customHeight="1" thickBot="1">
       <c r="A2" t="inlineStr">
         <is>
-          <t>#p</t>
+          <t>#preamble</t>
         </is>
       </c>
       <c r="B2" s="2" t="inlineStr">
@@ -1017,7 +1017,7 @@
     <row r="3" ht="17" customHeight="1" thickBot="1">
       <c r="A3" t="inlineStr">
         <is>
-          <t>#p</t>
+          <t>#preamble</t>
         </is>
       </c>
       <c r="B3" s="2" t="inlineStr">
@@ -1034,7 +1034,7 @@
     <row r="4" ht="17" customHeight="1" thickBot="1">
       <c r="A4" t="inlineStr">
         <is>
-          <t>#p</t>
+          <t>#preamble</t>
         </is>
       </c>
       <c r="B4" s="2" t="inlineStr">
@@ -1049,7 +1049,7 @@
     <row r="5" ht="17" customHeight="1" thickBot="1">
       <c r="A5" t="inlineStr">
         <is>
-          <t>#p</t>
+          <t>#preamble</t>
         </is>
       </c>
       <c r="B5" s="2" t="inlineStr">
@@ -1066,7 +1066,7 @@
     <row r="6" ht="17" customHeight="1" thickBot="1">
       <c r="A6" t="inlineStr">
         <is>
-          <t>#p</t>
+          <t>#preamble</t>
         </is>
       </c>
       <c r="B6" s="2" t="inlineStr">
@@ -1083,7 +1083,7 @@
     <row r="7" ht="17" customHeight="1" thickBot="1">
       <c r="A7" t="inlineStr">
         <is>
-          <t>#p</t>
+          <t>#preamble</t>
         </is>
       </c>
       <c r="B7" s="2" t="inlineStr">
@@ -1100,7 +1100,7 @@
     <row r="8" ht="17" customHeight="1" thickBot="1">
       <c r="A8" t="inlineStr">
         <is>
-          <t>#p</t>
+          <t>#preamble</t>
         </is>
       </c>
       <c r="B8" s="2" t="inlineStr">
@@ -1117,7 +1117,7 @@
     <row r="9" ht="17" customHeight="1" thickBot="1">
       <c r="A9" t="inlineStr">
         <is>
-          <t>#p</t>
+          <t>#preamble</t>
         </is>
       </c>
       <c r="B9" s="2" t="inlineStr">
@@ -1134,7 +1134,7 @@
     <row r="10" ht="17" customHeight="1" thickBot="1">
       <c r="A10" t="inlineStr">
         <is>
-          <t>#p</t>
+          <t>#preamble</t>
         </is>
       </c>
       <c r="B10" s="2" t="inlineStr">
@@ -1151,7 +1151,7 @@
     <row r="11" ht="17" customHeight="1" thickBot="1">
       <c r="A11" t="inlineStr">
         <is>
-          <t>#p</t>
+          <t>#preamble</t>
         </is>
       </c>
       <c r="B11" s="2" t="inlineStr">
@@ -1166,7 +1166,7 @@
     <row r="12" ht="17" customHeight="1" thickBot="1">
       <c r="A12" t="inlineStr">
         <is>
-          <t>#p</t>
+          <t>#preamble</t>
         </is>
       </c>
       <c r="B12" s="2" t="inlineStr">
@@ -1181,7 +1181,7 @@
     <row r="13" ht="33" customHeight="1" thickBot="1">
       <c r="A13" t="inlineStr">
         <is>
-          <t>#p</t>
+          <t>#preamble</t>
         </is>
       </c>
       <c r="B13" s="2" t="inlineStr">
@@ -1198,7 +1198,7 @@
     <row r="14" ht="17" customHeight="1" thickBot="1">
       <c r="A14" t="inlineStr">
         <is>
-          <t>#p</t>
+          <t>#preamble</t>
         </is>
       </c>
       <c r="B14" s="2" t="inlineStr">
@@ -1215,7 +1215,7 @@
     <row r="15" ht="17" customHeight="1" thickBot="1">
       <c r="A15" t="inlineStr">
         <is>
-          <t>#p</t>
+          <t>#preamble</t>
         </is>
       </c>
       <c r="B15" s="2" t="inlineStr">
@@ -1233,1414 +1233,1414 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>#mh</t>
+          <t>#skip</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>#h</t>
+          <t>#header</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
@@ -2697,7 +2697,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>#mh</t>
+          <t>#skip</t>
         </is>
       </c>
       <c r="B1" s="6" t="inlineStr">
@@ -2741,7 +2741,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>#h</t>
+          <t>#header</t>
         </is>
       </c>
       <c r="B2" s="3" t="inlineStr">
@@ -2873,7 +2873,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
       <c r="B3" t="n">
@@ -2988,7 +2988,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
       <c r="B4" t="n">
@@ -3103,7 +3103,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
       <c r="B5" t="n">
@@ -3218,7 +3218,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
       <c r="B6" t="n">
@@ -3333,1372 +3333,1372 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>

--- a/template_examples/tissue_slide_template.xlsx
+++ b/template_examples/tissue_slide_template.xlsx
@@ -980,7 +980,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col hidden="1" min="1" max="1"/>
+    <col hidden="1" width="30" customWidth="1" min="1" max="1"/>
     <col width="30.6640625" customWidth="1" min="2" max="101"/>
   </cols>
   <sheetData>
@@ -1229,7 +1229,6 @@
         </is>
       </c>
     </row>
-    <row r="16"/>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
@@ -2690,7 +2689,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col hidden="1" min="1" max="1"/>
+    <col hidden="1" width="30" customWidth="1" min="1" max="1"/>
     <col width="30.6640625" customWidth="1" min="2" max="101"/>
   </cols>
   <sheetData>
@@ -4757,7 +4756,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E45"/>
+  <dimension ref="B1:E45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4765,6 +4764,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
+    <col width="30" customWidth="1" min="1" max="1"/>
     <col width="30.6640625" customWidth="1" min="2" max="101"/>
   </cols>
   <sheetData>
@@ -5589,7 +5589,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T27"/>
+  <dimension ref="B1:T27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5597,6 +5597,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
+    <col width="30" customWidth="1" min="1" max="1"/>
     <col width="30.6640625" customWidth="1" min="2" max="101"/>
   </cols>
   <sheetData>
